--- a/Day4/Data/WHO_estimates.xlsx
+++ b/Day4/Data/WHO_estimates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Africa</t>
   </si>
@@ -76,6 +76,27 @@
   </si>
   <si>
     <t>Pneumonia_total</t>
+  </si>
+  <si>
+    <t>Diarrhea_total</t>
+  </si>
+  <si>
+    <t>Malaria_total</t>
+  </si>
+  <si>
+    <t>Measles_total</t>
+  </si>
+  <si>
+    <t>HIV/AIDS_total</t>
+  </si>
+  <si>
+    <t>Neonatal_total</t>
+  </si>
+  <si>
+    <t>Injuries_total</t>
+  </si>
+  <si>
+    <t>Other_total</t>
   </si>
 </sst>
 </file>
@@ -124,8 +145,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -149,7 +182,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -158,6 +191,12 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -166,11 +205,291 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Americas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Africa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S. East Asia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Middle East</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Asia/Oceania</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.05268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Americas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Africa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S. East Asia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Middle East</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Asia/Oceania</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
+        <c:axId val="2087201400"/>
+        <c:axId val="2087208200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2087201400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>country</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2087208200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2087208200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>childhood deaths (in millions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2087201400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -508,7 +827,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -545,8 +864,29 @@
       <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -578,15 +918,43 @@
         <v>25</v>
       </c>
       <c r="K2" s="1">
-        <f>SUM(C2:J2)</f>
+        <f t="shared" ref="K2:K7" si="0">SUM(C2:J2)</f>
         <v>99</v>
       </c>
       <c r="L2" s="1">
-        <f>C2*B2/100</f>
+        <f>C2*$B2/100</f>
         <v>5.2679999999999998E-2</v>
       </c>
+      <c r="M2" s="1">
+        <f>D2*$B2/100</f>
+        <v>5.2679999999999998E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <f>E2*$B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>F2*$B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <f>G2*$B2/100</f>
+        <v>4.3899999999999998E-3</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>H2*$B2/100</f>
+        <v>0.19316</v>
+      </c>
+      <c r="R2" s="1">
+        <f>I2*$B2/100</f>
+        <v>2.1949999999999997E-2</v>
+      </c>
+      <c r="S2" s="1">
+        <f>J2*$B2/100</f>
+        <v>0.10975</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,15 +986,43 @@
         <v>5</v>
       </c>
       <c r="K3" s="1">
-        <f>SUM(C3:J3)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L7" si="0">C3*B3/100</f>
+        <f t="shared" ref="L3:S7" si="1">C3*$B3/100</f>
         <v>0.92315999999999998</v>
       </c>
+      <c r="M3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.70335999999999999</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79127999999999998</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2198</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26375999999999999</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="1"/>
+        <v>1.14296</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="1"/>
+        <v>8.7919999999999998E-2</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2198</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -658,15 +1054,43 @@
         <v>12</v>
       </c>
       <c r="K4" s="1">
-        <f>SUM(C4:J4)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.58329999999999993</v>
       </c>
+      <c r="M4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="1"/>
+        <v>9.2099999999999987E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0699999999999998E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3507999999999998</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1399999999999996E-2</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36839999999999995</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -698,15 +1122,43 @@
         <v>9</v>
       </c>
       <c r="K5" s="1">
-        <f>SUM(C5:J5)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29589000000000004</v>
       </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23952999999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2270000000000002E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.636E-2</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60587000000000002</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2270000000000002E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12681000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -738,15 +1190,43 @@
         <v>23</v>
       </c>
       <c r="K6" s="1">
-        <f>SUM(C6:J6)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1560000000000005E-2</v>
       </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4189999999999998E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.63E-3</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11572</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8410000000000003E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0490000000000002E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -778,15 +1258,43 @@
         <v>13</v>
       </c>
       <c r="K7" s="1">
-        <f>SUM(C7:J7)</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1326</v>
       </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1734</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47939999999999999</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1326</v>
+      </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -795,35 +1303,67 @@
         <v>10.597</v>
       </c>
       <c r="C8" s="1">
-        <f>(C2*$B2+C3*$B3+C4*$B4+C5*$B5+C6*$B6+C7*$B7)/100</f>
+        <f t="shared" ref="C8:J8" si="2">(C2*$B2+C3*$B3+C4*$B4+C5*$B5+C6*$B6+C7*$B7)/100</f>
         <v>2.01919</v>
       </c>
       <c r="D8" s="1">
-        <f>(D2*$B2+D3*$B3+D4*$B4+D5*$B5+D6*$B6+D7*$B7)/100</f>
+        <f t="shared" si="2"/>
         <v>1.7557600000000002</v>
       </c>
       <c r="E8" s="1">
-        <f>(E2*$B2+E3*$B3+E4*$B4+E5*$B5+E6*$B6+E7*$B7)/100</f>
+        <f t="shared" si="2"/>
         <v>0.83355000000000001</v>
       </c>
       <c r="F8" s="1">
-        <f>(F2*$B2+F3*$B3+F4*$B4+F5*$B5+F6*$B6+F7*$B7)/100</f>
+        <f t="shared" si="2"/>
         <v>0.38109000000000004</v>
       </c>
       <c r="G8" s="1">
-        <f>(G2*$B2+G3*$B3+G4*$B4+G5*$B5+G6*$B6+G7*$B7)/100</f>
+        <f t="shared" si="2"/>
         <v>0.29885</v>
       </c>
       <c r="H8" s="1">
-        <f>(H2*$B2+H3*$B3+H4*$B4+H5*$B5+H6*$B6+H7*$B7)/100</f>
+        <f t="shared" si="2"/>
         <v>3.8879099999999998</v>
       </c>
       <c r="I8" s="1">
-        <f>(I2*$B2+I3*$B3+I4*$B4+I5*$B5+I6*$B6+I7*$B7)/100</f>
+        <f t="shared" si="2"/>
         <v>0.30335000000000001</v>
       </c>
       <c r="J8" s="1">
-        <f>(J2*$B2+J3*$B3+J4*$B4+J5*$B5+J6*$B6+J7*$B7)/100</f>
+        <f t="shared" si="2"/>
+        <v>1.0178499999999999</v>
+      </c>
+      <c r="L8" s="1">
+        <f>SUM(L2:L7)</f>
+        <v>2.0191899999999996</v>
+      </c>
+      <c r="M8" s="1">
+        <f>SUM(M2:M7)</f>
+        <v>1.75576</v>
+      </c>
+      <c r="N8" s="1">
+        <f>SUM(N2:N7)</f>
+        <v>0.83355000000000001</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" ref="O8:S8" si="3">SUM(O2:O7)</f>
+        <v>0.38108999999999998</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.29885</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8879099999999998</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30335000000000001</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="3"/>
         <v>1.0178499999999999</v>
       </c>
     </row>
@@ -848,6 +1388,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
